--- a/data/output/FV2410_FV2404/UTILMD/55077.xlsx
+++ b/data/output/FV2410_FV2404/UTILMD/55077.xlsx
@@ -14,69 +14,69 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4018" uniqueCount="331">
-  <si>
-    <t>Segmentname_old</t>
-  </si>
-  <si>
-    <t>Segmentgruppe_old</t>
-  </si>
-  <si>
-    <t>Segment_old</t>
-  </si>
-  <si>
-    <t>Datenelement_old</t>
-  </si>
-  <si>
-    <t>Segment ID_old</t>
-  </si>
-  <si>
-    <t>Code_old</t>
-  </si>
-  <si>
-    <t>Qualifier_old</t>
-  </si>
-  <si>
-    <t>Beschreibung_old</t>
-  </si>
-  <si>
-    <t>Bedingungsausdruck_old</t>
-  </si>
-  <si>
-    <t>Bedingung_old</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4039" uniqueCount="331">
+  <si>
+    <t>Segmentname_FV2404</t>
+  </si>
+  <si>
+    <t>Segmentgruppe_FV2404</t>
+  </si>
+  <si>
+    <t>Segment_FV2404</t>
+  </si>
+  <si>
+    <t>Datenelement_FV2404</t>
+  </si>
+  <si>
+    <t>Segment ID_FV2404</t>
+  </si>
+  <si>
+    <t>Code_FV2404</t>
+  </si>
+  <si>
+    <t>Qualifier_FV2404</t>
+  </si>
+  <si>
+    <t>Beschreibung_FV2404</t>
+  </si>
+  <si>
+    <t>Bedingungsausdruck_FV2404</t>
+  </si>
+  <si>
+    <t>Bedingung_FV2404</t>
   </si>
   <si>
     <t>diff</t>
   </si>
   <si>
-    <t>Segmentname_new</t>
-  </si>
-  <si>
-    <t>Segmentgruppe_new</t>
-  </si>
-  <si>
-    <t>Segment_new</t>
-  </si>
-  <si>
-    <t>Datenelement_new</t>
-  </si>
-  <si>
-    <t>Segment ID_new</t>
-  </si>
-  <si>
-    <t>Code_new</t>
-  </si>
-  <si>
-    <t>Qualifier_new</t>
-  </si>
-  <si>
-    <t>Beschreibung_new</t>
-  </si>
-  <si>
-    <t>Bedingungsausdruck_new</t>
-  </si>
-  <si>
-    <t>Bedingung_new</t>
+    <t>Segmentname_FV2410</t>
+  </si>
+  <si>
+    <t>Segmentgruppe_FV2410</t>
+  </si>
+  <si>
+    <t>Segment_FV2410</t>
+  </si>
+  <si>
+    <t>Datenelement_FV2410</t>
+  </si>
+  <si>
+    <t>Segment ID_FV2410</t>
+  </si>
+  <si>
+    <t>Code_FV2410</t>
+  </si>
+  <si>
+    <t>Qualifier_FV2410</t>
+  </si>
+  <si>
+    <t>Beschreibung_FV2410</t>
+  </si>
+  <si>
+    <t>Bedingungsausdruck_FV2410</t>
+  </si>
+  <si>
+    <t>Bedingung_FV2410</t>
   </si>
   <si>
     <t>Nachrichten-Kopfsegment</t>
@@ -1124,6 +1124,36 @@
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:U179" totalsRowShown="0">
+  <autoFilter ref="A1:U179"/>
+  <tableColumns count="21">
+    <tableColumn id="1" name="Segmentname_FV2404"/>
+    <tableColumn id="2" name="Segmentgruppe_FV2404"/>
+    <tableColumn id="3" name="Segment_FV2404"/>
+    <tableColumn id="4" name="Datenelement_FV2404"/>
+    <tableColumn id="5" name="Segment ID_FV2404"/>
+    <tableColumn id="6" name="Code_FV2404"/>
+    <tableColumn id="7" name="Qualifier_FV2404"/>
+    <tableColumn id="8" name="Beschreibung_FV2404"/>
+    <tableColumn id="9" name="Bedingungsausdruck_FV2404"/>
+    <tableColumn id="10" name="Bedingung_FV2404"/>
+    <tableColumn id="11" name="diff"/>
+    <tableColumn id="12" name="Segmentname_FV2410"/>
+    <tableColumn id="13" name="Segmentgruppe_FV2410"/>
+    <tableColumn id="14" name="Segment_FV2410"/>
+    <tableColumn id="15" name="Datenelement_FV2410"/>
+    <tableColumn id="16" name="Segment ID_FV2410"/>
+    <tableColumn id="17" name="Code_FV2410"/>
+    <tableColumn id="18" name="Qualifier_FV2410"/>
+    <tableColumn id="19" name="Beschreibung_FV2410"/>
+    <tableColumn id="20" name="Bedingungsausdruck_FV2410"/>
+    <tableColumn id="21" name="Bedingung_FV2410"/>
+  </tableColumns>
+  <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1413,7 +1443,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:U179"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
@@ -10061,5 +10094,8 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
 </worksheet>
 </file>
--- a/data/output/FV2410_FV2404/UTILMD/55077.xlsx
+++ b/data/output/FV2410_FV2404/UTILMD/55077.xlsx
@@ -2077,7 +2077,7 @@
       </c>
       <c r="K2" s="2"/>
       <c r="L2" s="4"/>
-      <c r="M2" s="2" t="s">
+      <c r="M2" s="3" t="s">
         <v>22</v>
       </c>
       <c r="N2" s="2"/>
@@ -2439,7 +2439,7 @@
       </c>
       <c r="K9" s="2"/>
       <c r="L9" s="4"/>
-      <c r="M9" s="2" t="s">
+      <c r="M9" s="3" t="s">
         <v>23</v>
       </c>
       <c r="N9" s="2"/>
@@ -2585,7 +2585,7 @@
       </c>
       <c r="K12" s="2"/>
       <c r="L12" s="4"/>
-      <c r="M12" s="2" t="s">
+      <c r="M12" s="3" t="s">
         <v>24</v>
       </c>
       <c r="N12" s="2"/>
@@ -2787,7 +2787,7 @@
       </c>
       <c r="K16" s="2"/>
       <c r="L16" s="4"/>
-      <c r="M16" s="2" t="s">
+      <c r="M16" s="3" t="s">
         <v>25</v>
       </c>
       <c r="N16" s="2" t="s">
@@ -3095,7 +3095,7 @@
       </c>
       <c r="K22" s="2"/>
       <c r="L22" s="4"/>
-      <c r="M22" s="2" t="s">
+      <c r="M22" s="3" t="s">
         <v>26</v>
       </c>
       <c r="N22" s="2" t="s">
@@ -3295,7 +3295,7 @@
       </c>
       <c r="K26" s="2"/>
       <c r="L26" s="4"/>
-      <c r="M26" s="2" t="s">
+      <c r="M26" s="3" t="s">
         <v>27</v>
       </c>
       <c r="N26" s="2" t="s">
@@ -3669,7 +3669,7 @@
       </c>
       <c r="K33" s="2"/>
       <c r="L33" s="4"/>
-      <c r="M33" s="2" t="s">
+      <c r="M33" s="3" t="s">
         <v>28</v>
       </c>
       <c r="N33" s="2" t="s">
@@ -3981,7 +3981,7 @@
       </c>
       <c r="K39" s="2"/>
       <c r="L39" s="4"/>
-      <c r="M39" s="2" t="s">
+      <c r="M39" s="3" t="s">
         <v>29</v>
       </c>
       <c r="N39" s="2" t="s">
@@ -4181,7 +4181,7 @@
       </c>
       <c r="K43" s="2"/>
       <c r="L43" s="4"/>
-      <c r="M43" s="2" t="s">
+      <c r="M43" s="3" t="s">
         <v>30</v>
       </c>
       <c r="N43" s="2" t="s">
@@ -4399,7 +4399,7 @@
         <v>310</v>
       </c>
       <c r="L47" s="4"/>
-      <c r="M47" s="2" t="s">
+      <c r="M47" s="3" t="s">
         <v>31</v>
       </c>
       <c r="N47" s="2" t="s">
@@ -4557,7 +4557,7 @@
         <v>311</v>
       </c>
       <c r="L50" s="4"/>
-      <c r="M50" s="2" t="s">
+      <c r="M50" s="3" t="s">
         <v>32</v>
       </c>
       <c r="N50" s="2" t="s">
@@ -4761,7 +4761,7 @@
         <v>313</v>
       </c>
       <c r="L54" s="4"/>
-      <c r="M54" s="2" t="s">
+      <c r="M54" s="3" t="s">
         <v>33</v>
       </c>
       <c r="N54" s="2" t="s">
@@ -4963,7 +4963,7 @@
       </c>
       <c r="K58" s="2"/>
       <c r="L58" s="4"/>
-      <c r="M58" s="2" t="s">
+      <c r="M58" s="3" t="s">
         <v>34</v>
       </c>
       <c r="N58" s="2" t="s">
@@ -5165,7 +5165,7 @@
         <v>314</v>
       </c>
       <c r="L62" s="4"/>
-      <c r="M62" s="2" t="s">
+      <c r="M62" s="3" t="s">
         <v>35</v>
       </c>
       <c r="N62" s="2" t="s">
@@ -5373,7 +5373,7 @@
         <v>310</v>
       </c>
       <c r="L66" s="4"/>
-      <c r="M66" s="2" t="s">
+      <c r="M66" s="3" t="s">
         <v>36</v>
       </c>
       <c r="N66" s="2" t="s">
@@ -5523,7 +5523,7 @@
         <v>316</v>
       </c>
       <c r="L69" s="4"/>
-      <c r="M69" s="2" t="s">
+      <c r="M69" s="3" t="s">
         <v>37</v>
       </c>
       <c r="N69" s="2" t="s">
@@ -5685,7 +5685,7 @@
         <v>317</v>
       </c>
       <c r="L72" s="4"/>
-      <c r="M72" s="2" t="s">
+      <c r="M72" s="3" t="s">
         <v>38</v>
       </c>
       <c r="N72" s="2" t="s">
@@ -5945,7 +5945,7 @@
       </c>
       <c r="K77" s="2"/>
       <c r="L77" s="4"/>
-      <c r="M77" s="2" t="s">
+      <c r="M77" s="3" t="s">
         <v>39</v>
       </c>
       <c r="N77" s="2" t="s">
@@ -6147,7 +6147,7 @@
         <v>319</v>
       </c>
       <c r="L81" s="4"/>
-      <c r="M81" s="2" t="s">
+      <c r="M81" s="3" t="s">
         <v>40</v>
       </c>
       <c r="N81" s="2" t="s">
@@ -6347,7 +6347,7 @@
         <v>320</v>
       </c>
       <c r="L85" s="4"/>
-      <c r="M85" s="2" t="s">
+      <c r="M85" s="3" t="s">
         <v>41</v>
       </c>
       <c r="N85" s="2" t="s">
@@ -6649,7 +6649,7 @@
       </c>
       <c r="K91" s="2"/>
       <c r="L91" s="4"/>
-      <c r="M91" s="2" t="s">
+      <c r="M91" s="3" t="s">
         <v>42</v>
       </c>
       <c r="N91" s="2" t="s">
@@ -7017,7 +7017,7 @@
         <v>322</v>
       </c>
       <c r="L98" s="4"/>
-      <c r="M98" s="2" t="s">
+      <c r="M98" s="3" t="s">
         <v>43</v>
       </c>
       <c r="N98" s="2" t="s">
@@ -7333,7 +7333,7 @@
         <v>320</v>
       </c>
       <c r="L104" s="4"/>
-      <c r="M104" s="2" t="s">
+      <c r="M104" s="3" t="s">
         <v>44</v>
       </c>
       <c r="N104" s="2" t="s">
@@ -7645,7 +7645,7 @@
         <v>323</v>
       </c>
       <c r="L110" s="4"/>
-      <c r="M110" s="2" t="s">
+      <c r="M110" s="3" t="s">
         <v>45</v>
       </c>
       <c r="N110" s="2" t="s">
@@ -7795,7 +7795,7 @@
         <v>324</v>
       </c>
       <c r="L113" s="4"/>
-      <c r="M113" s="2" t="s">
+      <c r="M113" s="3" t="s">
         <v>46</v>
       </c>
       <c r="N113" s="2" t="s">
@@ -7957,7 +7957,7 @@
         <v>325</v>
       </c>
       <c r="L116" s="4"/>
-      <c r="M116" s="2" t="s">
+      <c r="M116" s="3" t="s">
         <v>47</v>
       </c>
       <c r="N116" s="2" t="s">
@@ -8219,7 +8219,7 @@
         <v>327</v>
       </c>
       <c r="L121" s="4"/>
-      <c r="M121" s="2" t="s">
+      <c r="M121" s="3" t="s">
         <v>40</v>
       </c>
       <c r="N121" s="2" t="s">
@@ -8419,7 +8419,7 @@
         <v>320</v>
       </c>
       <c r="L125" s="4"/>
-      <c r="M125" s="2" t="s">
+      <c r="M125" s="3" t="s">
         <v>41</v>
       </c>
       <c r="N125" s="2" t="s">
@@ -8723,7 +8723,7 @@
         <v>328</v>
       </c>
       <c r="L131" s="4"/>
-      <c r="M131" s="2" t="s">
+      <c r="M131" s="3" t="s">
         <v>48</v>
       </c>
       <c r="N131" s="2" t="s">
@@ -8981,7 +8981,7 @@
         <v>329</v>
       </c>
       <c r="L136" s="4"/>
-      <c r="M136" s="2" t="s">
+      <c r="M136" s="3" t="s">
         <v>49</v>
       </c>
       <c r="N136" s="2" t="s">
@@ -9129,7 +9129,7 @@
       </c>
       <c r="K139" s="2"/>
       <c r="L139" s="4"/>
-      <c r="M139" s="2" t="s">
+      <c r="M139" s="3" t="s">
         <v>37</v>
       </c>
       <c r="N139" s="2" t="s">
@@ -9287,7 +9287,7 @@
       </c>
       <c r="K142" s="2"/>
       <c r="L142" s="4"/>
-      <c r="M142" s="2" t="s">
+      <c r="M142" s="3" t="s">
         <v>50</v>
       </c>
       <c r="N142" s="2" t="s">
@@ -9589,7 +9589,7 @@
         <v>330</v>
       </c>
       <c r="L148" s="4"/>
-      <c r="M148" s="2" t="s">
+      <c r="M148" s="3" t="s">
         <v>51</v>
       </c>
       <c r="N148" s="2" t="s">
@@ -9737,7 +9737,7 @@
       </c>
       <c r="K151" s="2"/>
       <c r="L151" s="4"/>
-      <c r="M151" s="2" t="s">
+      <c r="M151" s="3" t="s">
         <v>37</v>
       </c>
       <c r="N151" s="2" t="s">
@@ -9895,7 +9895,7 @@
       </c>
       <c r="K154" s="2"/>
       <c r="L154" s="4"/>
-      <c r="M154" s="2" t="s">
+      <c r="M154" s="3" t="s">
         <v>52</v>
       </c>
       <c r="N154" s="2" t="s">
@@ -10137,7 +10137,7 @@
       </c>
       <c r="K159" s="2"/>
       <c r="L159" s="4"/>
-      <c r="M159" s="2" t="s">
+      <c r="M159" s="3" t="s">
         <v>50</v>
       </c>
       <c r="N159" s="2" t="s">
@@ -10493,7 +10493,7 @@
         <v>331</v>
       </c>
       <c r="L166" s="4"/>
-      <c r="M166" s="2" t="s">
+      <c r="M166" s="3" t="s">
         <v>53</v>
       </c>
       <c r="N166" s="2" t="s">
@@ -10641,7 +10641,7 @@
       </c>
       <c r="K169" s="2"/>
       <c r="L169" s="4"/>
-      <c r="M169" s="2" t="s">
+      <c r="M169" s="3" t="s">
         <v>37</v>
       </c>
       <c r="N169" s="2" t="s">
@@ -10799,7 +10799,7 @@
       </c>
       <c r="K172" s="2"/>
       <c r="L172" s="4"/>
-      <c r="M172" s="2" t="s">
+      <c r="M172" s="3" t="s">
         <v>54</v>
       </c>
       <c r="N172" s="2" t="s">
@@ -11043,7 +11043,7 @@
       </c>
       <c r="K177" s="2"/>
       <c r="L177" s="4"/>
-      <c r="M177" s="2" t="s">
+      <c r="M177" s="3" t="s">
         <v>55</v>
       </c>
       <c r="N177" s="2"/>
